--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_10_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_10_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67769.0702587056</v>
+        <v>-55605.56227792594</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10801387.24293211</v>
+        <v>10832798.46452648</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21944203.14394827</v>
+        <v>21934850.53416022</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4163968.636434905</v>
+        <v>4166178.291485272</v>
       </c>
     </row>
     <row r="11">
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>218.2111409464629</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>233.4357089658653</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>227.7528737187178</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>226.7777408199137</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>227.6097508526263</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>229.1091522321465</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>136.5653954824675</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>136.8385818314783</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>140.1317786452013</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>129.2864630672354</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>140.7160931202018</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>132.4654202195568</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>138.9730561082392</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8142,16 +8142,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>134.8846762812383</v>
+        <v>133.8997196622861</v>
       </c>
       <c r="M4" t="n">
-        <v>138.9257839476051</v>
+        <v>137.8872852940284</v>
       </c>
       <c r="N4" t="n">
-        <v>127.6855444652332</v>
+        <v>126.6717389884799</v>
       </c>
       <c r="O4" t="n">
-        <v>138.4565384518428</v>
+        <v>137.5201250048898</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8379,19 +8379,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>134.8846762812383</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M7" t="n">
-        <v>138.9257839476051</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N7" t="n">
-        <v>127.6855444652332</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O7" t="n">
-        <v>138.4565384518428</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P7" t="n">
-        <v>135.0065633140411</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8458,16 +8458,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L8" t="n">
-        <v>86.82148686318186</v>
+        <v>86.82148686318189</v>
       </c>
       <c r="M8" t="n">
-        <v>64.61630209323863</v>
+        <v>64.61630209323866</v>
       </c>
       <c r="N8" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O8" t="n">
-        <v>71.0718992657024</v>
+        <v>71.07189926570237</v>
       </c>
       <c r="P8" t="n">
         <v>95.50771753390021</v>
@@ -8552,7 +8552,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q9" t="n">
-        <v>75.51914927829571</v>
+        <v>75.5191492782957</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8619,7 +8619,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M10" t="n">
-        <v>72.56001021962938</v>
+        <v>72.56001021962936</v>
       </c>
       <c r="N10" t="n">
         <v>62.89780050171086</v>
@@ -8941,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>9.069265482343781</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P14" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.64258426171736</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9090,10 +9090,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L16" t="n">
-        <v>47.39929435887774</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M16" t="n">
-        <v>46.68471506615327</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N16" t="n">
         <v>37.63776203285606</v>
@@ -9178,13 +9178,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>9.069265482343809</v>
+        <v>9.069265482343781</v>
       </c>
       <c r="P17" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q17" t="n">
-        <v>80.64258426171739</v>
+        <v>80.64258426171736</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9327,10 +9327,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L19" t="n">
-        <v>47.39929435887775</v>
+        <v>47.39929435887774</v>
       </c>
       <c r="M19" t="n">
-        <v>46.68471506615329</v>
+        <v>46.68471506615327</v>
       </c>
       <c r="N19" t="n">
         <v>37.63776203285606</v>
@@ -22561,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>415.2879682170718</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22798,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>67.46474657889402</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S14" t="n">
         <v>179.1266962566148</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>56.57895837355434</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S15" t="n">
         <v>158.6458343615066</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>67.46474657889404</v>
+        <v>67.46474657889402</v>
       </c>
       <c r="S17" t="n">
         <v>179.1266962566148</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.57895837355435</v>
+        <v>56.57895837355434</v>
       </c>
       <c r="S18" t="n">
         <v>158.6458343615066</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>365525.1788069178</v>
+        <v>365891.4221755643</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>365525.1788069178</v>
+        <v>367442.3269559073</v>
       </c>
     </row>
     <row r="4">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64504.44331886782</v>
+        <v>64668.10444303643</v>
       </c>
       <c r="C2" t="n">
-        <v>64504.44331886782</v>
+        <v>65463.09536926598</v>
       </c>
       <c r="D2" t="n">
-        <v>70000.02111109273</v>
+        <v>70000.0211110927</v>
       </c>
       <c r="E2" t="n">
         <v>71864.55661388767</v>
       </c>
       <c r="F2" t="n">
+        <v>71864.55661388766</v>
+      </c>
+      <c r="G2" t="n">
         <v>71864.55661388767</v>
-      </c>
-      <c r="G2" t="n">
-        <v>71864.55661388769</v>
       </c>
       <c r="H2" t="n">
         <v>71864.55661388766</v>
       </c>
       <c r="I2" t="n">
+        <v>71864.55661388766</v>
+      </c>
+      <c r="J2" t="n">
         <v>71864.55661388767</v>
-      </c>
-      <c r="J2" t="n">
-        <v>71864.55661388766</v>
       </c>
       <c r="K2" t="n">
         <v>71864.55661388766</v>
       </c>
       <c r="L2" t="n">
-        <v>71864.55661388765</v>
+        <v>71864.55661388767</v>
       </c>
       <c r="M2" t="n">
-        <v>71864.55661388766</v>
+        <v>71864.55661388767</v>
       </c>
       <c r="N2" t="n">
-        <v>71864.55661388766</v>
+        <v>71864.55661388767</v>
       </c>
       <c r="O2" t="n">
         <v>71864.55661388767</v>
       </c>
       <c r="P2" t="n">
-        <v>71864.55661388767</v>
+        <v>71864.55661388766</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3540.182044145911</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17610.60540304349</v>
       </c>
       <c r="D3" t="n">
-        <v>201068.9115716352</v>
+        <v>181359.9284513112</v>
       </c>
       <c r="E3" t="n">
         <v>73542.05618995983</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53753.7027657232</v>
+        <v>53328.91736755468</v>
       </c>
       <c r="C4" t="n">
-        <v>53753.7027657232</v>
+        <v>51037.36600445495</v>
       </c>
       <c r="D4" t="n">
         <v>22471.52375672497</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33627.6</v>
+        <v>33707.69021107268</v>
       </c>
       <c r="C5" t="n">
-        <v>33627.6</v>
+        <v>34129.29174257201</v>
       </c>
       <c r="D5" t="n">
         <v>38745.80483114667</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22876.85944685538</v>
+        <v>-41045.72072275756</v>
       </c>
       <c r="C6" t="n">
-        <v>-22876.85944685538</v>
+        <v>-52384.95407997271</v>
       </c>
       <c r="D6" t="n">
-        <v>-192286.2190484141</v>
+        <v>-187269.9450821061</v>
       </c>
       <c r="E6" t="n">
-        <v>-20254.49295100319</v>
+        <v>-34791.82414645297</v>
       </c>
       <c r="F6" t="n">
-        <v>53287.56323895663</v>
+        <v>38750.23204350684</v>
       </c>
       <c r="G6" t="n">
-        <v>53287.56323895665</v>
+        <v>38750.23204350685</v>
       </c>
       <c r="H6" t="n">
-        <v>53287.56323895662</v>
+        <v>38750.23204350684</v>
       </c>
       <c r="I6" t="n">
-        <v>53287.56323895663</v>
+        <v>38750.23204350684</v>
       </c>
       <c r="J6" t="n">
-        <v>53287.56323895662</v>
+        <v>38750.23204350685</v>
       </c>
       <c r="K6" t="n">
-        <v>53287.56323895662</v>
+        <v>38750.23204350684</v>
       </c>
       <c r="L6" t="n">
-        <v>53287.5632389566</v>
+        <v>38750.23204350685</v>
       </c>
       <c r="M6" t="n">
-        <v>53287.56323895662</v>
+        <v>38750.23204350685</v>
       </c>
       <c r="N6" t="n">
-        <v>53287.56323895662</v>
+        <v>38750.23204350685</v>
       </c>
       <c r="O6" t="n">
-        <v>53287.56323895663</v>
+        <v>38750.23204350685</v>
       </c>
       <c r="P6" t="n">
-        <v>53287.56323895663</v>
+        <v>38750.23204350684</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="D3" t="n">
         <v>234.7800381259942</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>19.339519793547</v>
       </c>
       <c r="D3" t="n">
-        <v>234.7800381259942</v>
+        <v>211.7666554392049</v>
       </c>
       <c r="E3" t="n">
         <v>91.53818966317007</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.48846056906043</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31530,7 +31530,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L8" t="n">
-        <v>148.9449281068054</v>
+        <v>148.9449281068053</v>
       </c>
       <c r="M8" t="n">
         <v>165.7299311340341</v>
@@ -31539,7 +31539,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O8" t="n">
-        <v>159.0263121559843</v>
+        <v>159.0263121559844</v>
       </c>
       <c r="P8" t="n">
         <v>135.7252782213693</v>
@@ -31554,7 +31554,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T8" t="n">
-        <v>4.131656751342871</v>
+        <v>4.131656751342872</v>
       </c>
       <c r="U8" t="n">
         <v>0.07550714794001816</v>
@@ -31624,7 +31624,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q9" t="n">
-        <v>64.4626248077258</v>
+        <v>64.46262480772582</v>
       </c>
       <c r="R9" t="n">
         <v>31.35420961992052</v>
@@ -31673,7 +31673,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.423373839243596</v>
+        <v>0.4233738392435961</v>
       </c>
       <c r="H10" t="n">
         <v>3.764178316183975</v>
@@ -31691,7 +31691,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M10" t="n">
-        <v>66.36577372797568</v>
+        <v>66.36577372797569</v>
       </c>
       <c r="N10" t="n">
         <v>64.78774396352233</v>
@@ -31703,13 +31703,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q10" t="n">
-        <v>35.45178575702513</v>
+        <v>35.45178575702512</v>
       </c>
       <c r="R10" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S10" t="n">
-        <v>7.378251362090667</v>
+        <v>7.378251362090666</v>
       </c>
       <c r="T10" t="n">
         <v>1.808960949495364</v>
@@ -31995,7 +31995,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I14" t="n">
-        <v>50.5744059370523</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J14" t="n">
         <v>111.3401072796808</v>
@@ -32022,7 +32022,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R14" t="n">
-        <v>82.40437136225566</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S14" t="n">
         <v>29.89337332963048</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.70189203713141</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H15" t="n">
         <v>6.778799411242828</v>
@@ -32101,7 +32101,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R15" t="n">
-        <v>43.57887577908879</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S15" t="n">
         <v>13.03733674233122</v>
@@ -32150,7 +32150,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H16" t="n">
-        <v>5.231790602914802</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I16" t="n">
         <v>17.69607700863206</v>
@@ -32162,10 +32162,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L16" t="n">
-        <v>87.48538192236055</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M16" t="n">
-        <v>92.24106888145178</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N16" t="n">
         <v>90.04778243237713</v>
@@ -32232,7 +32232,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I17" t="n">
-        <v>50.57440593705229</v>
+        <v>50.5744059370523</v>
       </c>
       <c r="J17" t="n">
         <v>111.3401072796808</v>
@@ -32259,7 +32259,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R17" t="n">
-        <v>82.40437136225565</v>
+        <v>82.40437136225566</v>
       </c>
       <c r="S17" t="n">
         <v>29.89337332963048</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.70189203713141</v>
       </c>
       <c r="H18" t="n">
         <v>6.778799411242828</v>
@@ -32338,7 +32338,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R18" t="n">
-        <v>43.57887577908878</v>
+        <v>43.57887577908879</v>
       </c>
       <c r="S18" t="n">
         <v>13.03733674233122</v>
@@ -32387,7 +32387,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H19" t="n">
-        <v>5.231790602914801</v>
+        <v>5.231790602914802</v>
       </c>
       <c r="I19" t="n">
         <v>17.69607700863206</v>
@@ -32399,10 +32399,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L19" t="n">
-        <v>87.48538192236053</v>
+        <v>87.48538192236055</v>
       </c>
       <c r="M19" t="n">
-        <v>92.24106888145177</v>
+        <v>92.24106888145178</v>
       </c>
       <c r="N19" t="n">
         <v>90.04778243237713</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_10_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_10_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55605.56227792594</v>
+        <v>54978.96612900951</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10832798.46452648</v>
+        <v>10801387.24293211</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21934850.53416022</v>
+        <v>21944203.14394827</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4166178.291485272</v>
+        <v>4163968.636434905</v>
       </c>
     </row>
     <row r="11">
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>218.2111409464629</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>233.4357089658653</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>227.7528737187178</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>226.7777408199137</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>227.6097508526263</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>229.1091522321465</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>136.5653954824675</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>136.8385818314783</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>140.1317786452013</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>129.2864630672354</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>140.7160931202018</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>132.4654202195568</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9730561082392</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8142,16 +8142,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>133.8997196622861</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
-        <v>137.8872852940284</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6717389884799</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O4" t="n">
-        <v>137.5201250048898</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>208.3214547517356</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>221.1666787354324</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>214.1012135983212</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>212.9051825663978</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>214.5102874732696</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>217.9290633046618</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>129.8481964236088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>127.8064787429921</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>129.5917403577182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>118.4674613291454</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>130.8188201934042</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>124.5219861368073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>133.663080786811</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8379,19 +8379,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>128.7148261097669</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M7" t="n">
-        <v>132.4205420186164</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N7" t="n">
-        <v>121.3349826493852</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O7" t="n">
-        <v>132.590766746692</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
-        <v>132.7088230120157</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8704,13 +8704,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>9.069265482343781</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P11" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q11" t="n">
-        <v>80.64258426171736</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8853,10 +8853,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L13" t="n">
-        <v>47.39929435887774</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M13" t="n">
-        <v>46.68471506615327</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N13" t="n">
         <v>37.63776203285606</v>
@@ -9178,13 +9178,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>9.069265482343781</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P17" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q17" t="n">
-        <v>80.64258426171736</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9327,10 +9327,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L19" t="n">
-        <v>47.39929435887774</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M19" t="n">
-        <v>46.68471506615327</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N19" t="n">
         <v>37.63776203285606</v>
@@ -10837,13 +10837,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>9.069265482343809</v>
+        <v>9.069265482343781</v>
       </c>
       <c r="P38" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q38" t="n">
-        <v>80.64258426171739</v>
+        <v>80.64258426171736</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10986,10 +10986,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L40" t="n">
-        <v>47.39929435887775</v>
+        <v>47.39929435887774</v>
       </c>
       <c r="M40" t="n">
-        <v>46.68471506615329</v>
+        <v>46.68471506615327</v>
       </c>
       <c r="N40" t="n">
         <v>37.63776203285606</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>9.069265482343781</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P41" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q41" t="n">
-        <v>80.64258426171736</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11223,10 +11223,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L43" t="n">
-        <v>47.39929435887774</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M43" t="n">
-        <v>46.68471506615327</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N43" t="n">
         <v>37.63776203285606</v>
@@ -22561,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.2879682170718</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>339.3235460419765</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>209.9064962068211</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>10.69576364311372</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.395781178313161</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>148.9413660216818</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>208.6835142066282</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0311969618593</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3444713639914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3356148920818</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.1591249337519</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.12455904281175</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>99.6672001609758</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.5363898835276</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1328769967189</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9408621947163</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9843543597988</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.1682702466266</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.2512431493756</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>92.89079271141465</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>21.49978743611831</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.920177260816417</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>85.60728995481479</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>176.9955073465141</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>223.9011423785076</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9172826158254</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3186679929276</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22798,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.2102214038314</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>206.909162189371</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>4.097100052852174</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>144.0576027644702</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2940166796957</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>97.08446202703757</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>199.9652070090748</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>154.2024705022108</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>90.42516245839145</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>17.44799951871617</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.6870224659892</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>67.46474657889402</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S11" t="n">
         <v>179.1266962566148</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>56.57895837355434</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S12" t="n">
         <v>158.6458343615066</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>67.46474657889402</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S17" t="n">
         <v>179.1266962566148</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.57895837355434</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S18" t="n">
         <v>158.6458343615066</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>67.46474657889404</v>
+        <v>67.46474657889402</v>
       </c>
       <c r="S38" t="n">
         <v>179.1266962566148</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>56.57895837355435</v>
+        <v>56.57895837355434</v>
       </c>
       <c r="S39" t="n">
         <v>158.6458343615066</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>67.46474657889402</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S41" t="n">
         <v>179.1266962566148</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>56.57895837355434</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S42" t="n">
         <v>158.6458343615066</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>365891.4221755643</v>
+        <v>365525.1788069178</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>367442.3269559073</v>
+        <v>365525.1788069178</v>
       </c>
     </row>
     <row r="4">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64668.10444303643</v>
+        <v>64504.44331886783</v>
       </c>
       <c r="C2" t="n">
-        <v>65463.09536926598</v>
+        <v>64504.44331886782</v>
       </c>
       <c r="D2" t="n">
         <v>70000.0211110927</v>
       </c>
       <c r="E2" t="n">
+        <v>71864.55661388766</v>
+      </c>
+      <c r="F2" t="n">
         <v>71864.55661388767</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>71864.55661388766</v>
-      </c>
-      <c r="G2" t="n">
-        <v>71864.55661388767</v>
       </c>
       <c r="H2" t="n">
         <v>71864.55661388766</v>
@@ -26337,25 +26337,25 @@
         <v>71864.55661388766</v>
       </c>
       <c r="J2" t="n">
-        <v>71864.55661388767</v>
+        <v>71864.55661388769</v>
       </c>
       <c r="K2" t="n">
         <v>71864.55661388766</v>
       </c>
       <c r="L2" t="n">
-        <v>71864.55661388767</v>
+        <v>71864.55661388769</v>
       </c>
       <c r="M2" t="n">
-        <v>71864.55661388767</v>
+        <v>71864.55661388766</v>
       </c>
       <c r="N2" t="n">
         <v>71864.55661388767</v>
       </c>
       <c r="O2" t="n">
-        <v>71864.55661388767</v>
+        <v>71864.55661388765</v>
       </c>
       <c r="P2" t="n">
-        <v>71864.55661388766</v>
+        <v>71864.55661388769</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3540.182044145911</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>17610.60540304349</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>181359.9284513112</v>
+        <v>201068.9115716352</v>
       </c>
       <c r="E3" t="n">
         <v>73542.05618995983</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53328.91736755468</v>
+        <v>53753.7027657232</v>
       </c>
       <c r="C4" t="n">
-        <v>51037.36600445495</v>
+        <v>53753.7027657232</v>
       </c>
       <c r="D4" t="n">
         <v>22471.52375672497</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33707.69021107268</v>
+        <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>34129.29174257201</v>
+        <v>33627.6</v>
       </c>
       <c r="D5" t="n">
         <v>38745.80483114667</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-41045.72072275756</v>
+        <v>-24391.92684385885</v>
       </c>
       <c r="C6" t="n">
-        <v>-52384.95407997271</v>
+        <v>-24391.92684385886</v>
       </c>
       <c r="D6" t="n">
-        <v>-187269.9450821061</v>
+        <v>-193755.4899638158</v>
       </c>
       <c r="E6" t="n">
-        <v>-34791.82414645297</v>
+        <v>-21708.22607054819</v>
       </c>
       <c r="F6" t="n">
-        <v>38750.23204350684</v>
+        <v>51833.83011941165</v>
       </c>
       <c r="G6" t="n">
-        <v>38750.23204350685</v>
+        <v>51833.83011941164</v>
       </c>
       <c r="H6" t="n">
-        <v>38750.23204350684</v>
+        <v>51833.83011941164</v>
       </c>
       <c r="I6" t="n">
-        <v>38750.23204350684</v>
+        <v>51833.83011941164</v>
       </c>
       <c r="J6" t="n">
-        <v>38750.23204350685</v>
+        <v>51833.83011941166</v>
       </c>
       <c r="K6" t="n">
-        <v>38750.23204350684</v>
+        <v>51833.83011941164</v>
       </c>
       <c r="L6" t="n">
-        <v>38750.23204350685</v>
+        <v>51833.83011941166</v>
       </c>
       <c r="M6" t="n">
-        <v>38750.23204350685</v>
+        <v>51833.83011941164</v>
       </c>
       <c r="N6" t="n">
-        <v>38750.23204350685</v>
+        <v>51833.83011941165</v>
       </c>
       <c r="O6" t="n">
-        <v>38750.23204350685</v>
+        <v>51833.83011941162</v>
       </c>
       <c r="P6" t="n">
-        <v>38750.23204350684</v>
+        <v>51833.83011941166</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>234.7800381259942</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19.339519793547</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>211.7666554392049</v>
+        <v>234.7800381259942</v>
       </c>
       <c r="E3" t="n">
         <v>91.53818966317007</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01476929806328569</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1512560737906247</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5693933635848223</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.253525711498795</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.878710098517679</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.330706004121959</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.593359508554916</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.635322776677227</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.48846056906043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.123843523123063</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.594918036231644</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9277519194678708</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3365553796171231</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.06465260227203316</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.001181543845062855</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007902271128860838</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07631930274452442</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2720738086033228</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.276043491891533</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.715797948395859</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.002255276817064</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.05524901609789</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.880151324242605</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.508987194773435</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.008717977782306</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4906339916673424</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1467812203102001</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03185169810273293</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.000519886258477687</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006624998659945165</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05890226081296706</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1992317778827147</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4683874052581232</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7697043897645381</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9849566189522114</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.038498653576677</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.013805476753246</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.936413446952977</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8012634742900949</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5547532968795902</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2978840306553526</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1154556584646807</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02830681245612934</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0925161113036756</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9474806248887678</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3.566727381034957</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>7.852189301760343</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>11.76839629324493</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>14.5997362345548</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>16.24501962895154</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>16.50788103019311</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>15.58792394841718</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>13.30393245060769</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>5.811515176679517</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>2.10821088633251</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4049892772318401</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.007401288904294046</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04950048351498081</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4780704592104726</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.704292963125436</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>4.676710155246498</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>7.993242550750212</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>10.74790103688213</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>12.54229356430018</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>12.87425075418792</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>11.77742425104019</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>9.452421277522959</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.318693299210532</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>3.073372125605564</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9194497705523841</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1995216857467866</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.003256610757564528</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04149954254994795</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3689686601259011</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1.248004425047526</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.93401765828132</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>4.821492307166679</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>6.169850171471354</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>6.505241928988658</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>6.350561815847948</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>5.865771705150827</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>5.019181037131885</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.475020785705187</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1.865970340473114</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7232238460750018</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1773162272588685</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002263611411815345</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I11" t="n">
-        <v>50.5744059370523</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J11" t="n">
         <v>111.3401072796808</v>
@@ -31785,7 +31785,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R11" t="n">
-        <v>82.40437136225566</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S11" t="n">
         <v>29.89337332963048</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.70189203713141</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H12" t="n">
         <v>6.778799411242828</v>
@@ -31864,7 +31864,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R12" t="n">
-        <v>43.57887577908879</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S12" t="n">
         <v>13.03733674233122</v>
@@ -31913,7 +31913,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H13" t="n">
-        <v>5.231790602914802</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I13" t="n">
         <v>17.69607700863206</v>
@@ -31925,10 +31925,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L13" t="n">
-        <v>87.48538192236055</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M13" t="n">
-        <v>92.24106888145178</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N13" t="n">
         <v>90.04778243237713</v>
@@ -32232,7 +32232,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I17" t="n">
-        <v>50.5744059370523</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J17" t="n">
         <v>111.3401072796808</v>
@@ -32259,7 +32259,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R17" t="n">
-        <v>82.40437136225566</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S17" t="n">
         <v>29.89337332963048</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.70189203713141</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H18" t="n">
         <v>6.778799411242828</v>
@@ -32338,7 +32338,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R18" t="n">
-        <v>43.57887577908879</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S18" t="n">
         <v>13.03733674233122</v>
@@ -32387,7 +32387,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H19" t="n">
-        <v>5.231790602914802</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I19" t="n">
         <v>17.69607700863206</v>
@@ -32399,10 +32399,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L19" t="n">
-        <v>87.48538192236055</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M19" t="n">
-        <v>92.24106888145178</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N19" t="n">
         <v>90.04778243237713</v>
@@ -33891,7 +33891,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I38" t="n">
-        <v>50.57440593705229</v>
+        <v>50.5744059370523</v>
       </c>
       <c r="J38" t="n">
         <v>111.3401072796808</v>
@@ -33918,7 +33918,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R38" t="n">
-        <v>82.40437136225565</v>
+        <v>82.40437136225566</v>
       </c>
       <c r="S38" t="n">
         <v>29.89337332963048</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.70189203713141</v>
       </c>
       <c r="H39" t="n">
         <v>6.778799411242828</v>
@@ -33997,7 +33997,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R39" t="n">
-        <v>43.57887577908878</v>
+        <v>43.57887577908879</v>
       </c>
       <c r="S39" t="n">
         <v>13.03733674233122</v>
@@ -34046,7 +34046,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H40" t="n">
-        <v>5.231790602914801</v>
+        <v>5.231790602914802</v>
       </c>
       <c r="I40" t="n">
         <v>17.69607700863206</v>
@@ -34058,10 +34058,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L40" t="n">
-        <v>87.48538192236053</v>
+        <v>87.48538192236055</v>
       </c>
       <c r="M40" t="n">
-        <v>92.24106888145177</v>
+        <v>92.24106888145178</v>
       </c>
       <c r="N40" t="n">
         <v>90.04778243237713</v>
@@ -34128,7 +34128,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I41" t="n">
-        <v>50.5744059370523</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J41" t="n">
         <v>111.3401072796808</v>
@@ -34155,7 +34155,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R41" t="n">
-        <v>82.40437136225566</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S41" t="n">
         <v>29.89337332963048</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.70189203713141</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H42" t="n">
         <v>6.778799411242828</v>
@@ -34234,7 +34234,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R42" t="n">
-        <v>43.57887577908879</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S42" t="n">
         <v>13.03733674233122</v>
@@ -34283,7 +34283,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H43" t="n">
-        <v>5.231790602914802</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I43" t="n">
         <v>17.69607700863206</v>
@@ -34295,10 +34295,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L43" t="n">
-        <v>87.48538192236055</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M43" t="n">
-        <v>92.24106888145178</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N43" t="n">
         <v>90.04778243237713</v>
